--- a/Table/UnitAppearanceTable.xlsx
+++ b/Table/UnitAppearanceTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,7 +151,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Human/Boy/Back-arm1</t>
+    <t>빈 칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Naked/head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 기본 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 기본 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Face/face01-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Image의 스프라이트 아틀라스 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl의 몸통(세트2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Girl/body-idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl의 앞 팔(세트2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl의 뒷 팔(세트2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Girl/front-arm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Girl/back-arm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Boy/back-arm1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,107 +283,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빈 칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Naked/head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 기본 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 기본 얼굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Face/face01-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Image의 스프라이트 아틀라스 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair09</t>
+    <t>인간 뒷 머리 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Human/Hair/hair10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/backhair01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -673,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -681,19 +713,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -701,19 +733,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -721,19 +753,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -741,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -750,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -761,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -770,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -781,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -793,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -801,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -813,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -821,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -833,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -841,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -853,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -861,7 +893,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -873,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -881,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -893,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -901,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -913,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -921,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -930,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -941,19 +973,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -961,19 +993,99 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Table/UnitAppearanceTable.xlsx
+++ b/Table/UnitAppearanceTable.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Human/Boy/body-idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupID-int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,11 +114,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Boy의 몸통(세트1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Naked/head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 기본 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 기본 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Face/face01-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Image의 스프라이트 아틀라스 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 머리카락 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl의 몸통(세트2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 뒷 머리 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/hair10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human/Hair/backhair01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>세트 지정이 필요할 경우 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Boy의 몸통(세트1)</t>
+    <t xml:space="preserve">애니메이션 컨트롤러도 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,165 +253,20 @@
 3. 얼굴
 4. 얼굴 장식
 5. 모자
-6. 몸
-7. 앞 팔
-8. 뒷 팔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boy의 앞 팔(세트1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Boy/front-arm1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boy의 뒷 팔(세트1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈 칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Naked/head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 기본 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 기본 얼굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Face/face01-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Image의 스프라이트 아틀라스 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 머리카락 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl의 몸통(세트2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Girl/body-idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl의 앞 팔(세트2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl의 뒷 팔(세트2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Girl/front-arm1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Girl/back-arm1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Boy/back-arm1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 뒷 머리 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/backhair01</t>
+6. 몸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~5 까지는 이미지 세팅을 위해 아틀라스 경로 세팅
+6은 애니메이션 세팅을 위해 애니 컨트롤러 경로 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -693,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -705,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -713,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -725,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -733,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -745,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -753,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -765,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -773,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -785,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -793,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -805,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -813,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -825,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -833,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -845,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -865,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -885,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -905,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -913,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -925,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -933,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -945,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +928,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -965,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -985,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -993,99 +968,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1099,15 +994,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,16 +1035,19 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1055,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1182,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Table/UnitAppearanceTable.xlsx
+++ b/Table/UnitAppearanceTable.xlsx
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Human/Naked/head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인간 기본 표정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Human/Face/face01-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resources/Image의 스프라이트 아틀라스 참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Human/Hair/hair01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인간 머리카락 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,55 +174,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Human/Hair/hair02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Girl의 몸통(세트2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인간 뒷 머리 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/hair10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human/Hair/backhair01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -267,6 +211,62 @@
   </si>
   <si>
     <t>Human2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face01-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backhair01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +630,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -868,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -908,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -960,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -968,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1041,10 +1041,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="132" x14ac:dyDescent="0.3">
@@ -1055,10 +1055,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Table/UnitAppearanceTable.xlsx
+++ b/Table/UnitAppearanceTable.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-054\Documents\GitHub\ProjectApo\Table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,11 +264,115 @@
     <t>backhair01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>좀비 얼굴 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face01-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 얼굴 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face02-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 얼굴 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face03-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 머리카락 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +517,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -981,6 +1080,266 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Table/UnitAppearanceTable.xlsx
+++ b/Table/UnitAppearanceTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="7395" yWindow="2730" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,30 @@
   </si>
   <si>
     <t>hair10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 엘리트 좀비의 몸통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 좀비의 몸통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZombieElite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1340,6 +1364,66 @@
       </c>
       <c r="F30" s="1" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
